--- a/data/minfin/6_questions.xlsx
+++ b/data/minfin/6_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>question</t>
   </si>
@@ -60,12 +60,36 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>Расходы федерального бюджета в сфере культуры в динамике?</t>
-  </si>
-  <si>
     <t>Расходы, Федеральный бюджет, ФБ, Культура, В сфере, Динамика</t>
   </si>
   <si>
+    <t>Динамика расходов федерального бюджета в сфере культуры</t>
+  </si>
+  <si>
+    <t>6.1.jpg</t>
+  </si>
+  <si>
+    <t>Распределение расходов федерального бюджета на культуру в 2017 году по направлениям расходов</t>
+  </si>
+  <si>
+    <t>6.2.jpg</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Основные направления расходов федерального бюджета в сфере культуры в текущем финансовом году</t>
+  </si>
+  <si>
+    <t>Основные, Направления, Распределение, Расходы, Федеральный бюджет, В сфере, Культура, В текущем финансовом году, 2017</t>
+  </si>
+  <si>
+    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов основные суммы расходов федерального бюджета в сфере культуры в 2017 году предусмотрены на обеспечение деятельности федеральных учреждений культуры - 47.9%, капитальные вложения – 18,3%, субсидии юридическим лицам и некоммерческим организациям – 10,2%, реставрацию – 8,9%, премии и гранты в области культуры и искусства – 4%</t>
+  </si>
+  <si>
+    <t>Расходы федерального бюджета в сфере культуры в динамике</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">С </t>
     </r>
@@ -193,7 +217,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> году снизились на</t>
+      <t xml:space="preserve"> годах снизились на</t>
     </r>
     <r>
       <rPr>
@@ -355,149 +379,10 @@
     </r>
   </si>
   <si>
-    <t>Динамика расходов федерального бюджета в сфере культуры</t>
-  </si>
-  <si>
-    <t>6.1.jpg</t>
-  </si>
-  <si>
-    <t>Распределение расходов федерального бюджета на культуру в 2017 году по направлениям расходов</t>
-  </si>
-  <si>
-    <t>6.2.jpg</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>Наибольшие суммы расходов федерального бюджета в сфере культуры в 2017 году заложены на обеспечение деятельности федеральных учреждений культуры - 47.9%, капитальные вложения – 18,3%, субсидии юридическим лицам и некоммерческим организациям – 10,2%, реставрацию – 8,9%, премии и гранты в области культуры и искусства – 4%</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов наибольшие суммы расходов федерального бюджета в сфере культуры в </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> году заложены на обеспечение деятельности федеральных учреждений культуры - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>47.9%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, капитальные вложения – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>18,3%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, субсидии юридическим лицам и некоммерческим организациям – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10,2%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, реставрацию – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>8,9%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, премии и гранты в области культуры и искусства – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>4%</t>
-    </r>
-  </si>
-  <si>
-    <t>Основные направления расходов федерального бюджета в сфере культуры в текущем финансовом году</t>
-  </si>
-  <si>
-    <t>Основные, Направления, Распределение, Расходы, Федеральный бюджет, В сфере, Культура, В текущем финансовом году, 2017</t>
+    <t>Основные суммы расходов федерального бюджета в сфере культуры в две тысячи семнадцатом году направлены на обеспечение деятельности федеральных учреждений культуры, капитальные вложения, субсидии юридическим лицам и некоммерческим организациям, реставрацию, премии и гранты в области культуры и искусства</t>
+  </si>
+  <si>
+    <t>Расходы федерального бюджета в сфере культуры в две тысячи девятом году составили шестьдесят восемь целых восемь десятых миллиарда рублей. В две тысячи семнадцатом году на эту сферу предусмотрено девяносто девять целых восемь десятых миллиарда рублей, что на тридцать один миллиард рублей больше, чем в две тысячи девятом году</t>
   </si>
 </sst>
 </file>
@@ -543,12 +428,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -563,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,6 +477,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,7 +803,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -919,10 +813,8 @@
     <col min="3" max="3" width="74.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="71.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="6" max="7" width="47.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="21.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="2" customWidth="1"/>
@@ -973,24 +865,24 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -998,27 +890,27 @@
     </row>
     <row r="3" spans="1:12" ht="126">
       <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>

--- a/data/minfin/6_questions.xlsx
+++ b/data/minfin/6_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -81,9 +81,6 @@
     <t>Основные направления расходов федерального бюджета в сфере культуры в текущем финансовом году</t>
   </si>
   <si>
-    <t>Основные, Направления, Распределение, Расходы, Федеральный бюджет, В сфере, Культура, В текущем финансовом году, 2017</t>
-  </si>
-  <si>
     <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов основные суммы расходов федерального бюджета в сфере культуры в 2017 году предусмотрены на обеспечение деятельности федеральных учреждений культуры - 47.9%, капитальные вложения – 18,3%, субсидии юридическим лицам и некоммерческим организациям – 10,2%, реставрацию – 8,9%, премии и гранты в области культуры и искусства – 4%</t>
   </si>
   <si>
@@ -383,13 +380,16 @@
   </si>
   <si>
     <t>Расходы федерального бюджета в сфере культуры в две тысячи девятом году составили шестьдесят восемь целых восемь десятых миллиарда рублей. В две тысячи семнадцатом году на эту сферу предусмотрено девяносто девять целых восемь десятых миллиарда рублей, что на тридцать один миллиард рублей больше, чем в две тысячи девятом году</t>
+  </si>
+  <si>
+    <t>Основные, Ключевые, Направления, Распределение, Расходы, Федеральный бюджет, Культура, В текущем финансовом году, 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +427,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -454,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -479,6 +486,9 @@
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,21 +802,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
@@ -822,7 +832,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -860,18 +870,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="138.75" customHeight="1">
+    <row r="2" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
@@ -888,7 +898,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="126">
+    <row r="3" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -896,13 +906,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -916,7 +926,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -929,7 +939,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -942,7 +952,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -955,7 +965,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -968,11 +978,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -985,7 +995,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -998,7 +1008,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1011,7 +1021,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="134.25" customHeight="1">
+    <row r="12" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1024,7 +1034,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1037,7 +1047,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
@@ -1050,7 +1060,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
   </sheetData>

--- a/data/minfin/6_questions.xlsx
+++ b/data/minfin/6_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -81,315 +81,29 @@
     <t>Основные направления расходов федерального бюджета в сфере культуры в текущем финансовом году</t>
   </si>
   <si>
-    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов основные суммы расходов федерального бюджета в сфере культуры в 2017 году предусмотрены на обеспечение деятельности федеральных учреждений культуры - 47.9%, капитальные вложения – 18,3%, субсидии юридическим лицам и некоммерческим организациям – 10,2%, реставрацию – 8,9%, премии и гранты в области культуры и искусства – 4%</t>
-  </si>
-  <si>
     <t>Расходы федерального бюджета в сфере культуры в динамике</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">С </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> по </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> год расходы федерального бюджета в сфере культуры выросли с </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">68,8 млрд.руб. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">до </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>97,8 млрд.руб.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, в </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и в </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> годах снизились на</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 7,3 млрд.руб.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и составили </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>90,5 млрд.руб.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> году расходы федерального бюджета в сфере культуры составят </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>99,8 млрд. рублей</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, в </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> году – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>93 млрд.руб.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, в </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> году – </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>82,5 млрд.руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>Основные суммы расходов федерального бюджета в сфере культуры в две тысячи семнадцатом году направлены на обеспечение деятельности федеральных учреждений культуры, капитальные вложения, субсидии юридическим лицам и некоммерческим организациям, реставрацию, премии и гранты в области культуры и искусства</t>
-  </si>
-  <si>
-    <t>Расходы федерального бюджета в сфере культуры в две тысячи девятом году составили шестьдесят восемь целых восемь десятых миллиарда рублей. В две тысячи семнадцатом году на эту сферу предусмотрено девяносто девять целых восемь десятых миллиарда рублей, что на тридцать один миллиард рублей больше, чем в две тысячи девятом году</t>
-  </si>
-  <si>
-    <t>Основные, Ключевые, Направления, Распределение, Расходы, Федеральный бюджет, Культура, В текущем финансовом году, 2017</t>
+    <t>Расходы федерального бюджета в сфере культуры в две тысячи девятом году составили шестьдесят восемь миллиардов восемьсот миллионов рублей. В две тысячи семнадцатом году на эту сферу предусмотрено сто два миллиарда пятьсот миллионов рублей, что на сорок восемь целых восемь десятых процента больше, чем в две тысячи девятом году</t>
+  </si>
+  <si>
+    <t>С 2009 по 2014 год расходы федерального бюджета в сфере культуры выросли с 68,8 млрд. рублей до 97,8 млрд. рублей, в 2016 году составили 90,5 млрд. рублей. В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году расходы федерального бюджета в сфере культуры составят 102,5 млрд. рублей (с учетом внесения изменений), в 2018 году – 93 млрд. рублей, в 2019 году – 82,5 млрд. рублей</t>
+  </si>
+  <si>
+    <t>Основные суммы расходов федерального бюджета в сфере культуры в две тысячи семнадцатом году направлены на обеспечение деятельности федеральных учреждений культуры, капитальные вложения, а также субсидии юридическим лицам и некоммерческим организациям</t>
+  </si>
+  <si>
+    <t>Основные, Направления, Распределение, Расходы, Федеральный бюджет, Культура, В сфере, В текущем финансовом году, 2017</t>
+  </si>
+  <si>
+    <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов (с учетом внесения изменений) основные суммы расходов федерального бюджета в сфере культуры в 2017 году предусмотрены на обеспечение деятельности федеральных учреждений культуры – 47,9%, капитальные вложения – 17,8%, субсидии юридическим лицам и некоммерческим организациям – 10,2%, реставрацию – 8,5%, премии и гранты в области культуры и искусства – 4,9%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,21 +133,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -444,7 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,21 +501,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
@@ -832,7 +531,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -870,17 +569,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="138.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -891,14 +590,14 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="126">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -909,24 +608,24 @@
         <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -939,7 +638,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -952,7 +651,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -965,7 +664,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -978,11 +677,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1">
       <c r="A8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -995,7 +694,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1008,7 +707,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1021,7 +720,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="134.25" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1034,7 +733,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1047,7 +746,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
@@ -1060,7 +759,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="D15" s="7"/>
     </row>
   </sheetData>

--- a/data/minfin/6_questions.xlsx
+++ b/data/minfin/6_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -90,20 +90,20 @@
     <t>С 2009 по 2014 год расходы федерального бюджета в сфере культуры выросли с 68,8 млрд. рублей до 97,8 млрд. рублей, в 2016 году составили 90,5 млрд. рублей. В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов в 2017 году расходы федерального бюджета в сфере культуры составят 102,5 млрд. рублей (с учетом внесения изменений), в 2018 году – 93 млрд. рублей, в 2019 году – 82,5 млрд. рублей</t>
   </si>
   <si>
-    <t>Основные суммы расходов федерального бюджета в сфере культуры в две тысячи семнадцатом году направлены на обеспечение деятельности федеральных учреждений культуры, капитальные вложения, а также субсидии юридическим лицам и некоммерческим организациям</t>
-  </si>
-  <si>
     <t>Основные, Направления, Распределение, Расходы, Федеральный бюджет, Культура, В сфере, В текущем финансовом году, 2017</t>
   </si>
   <si>
     <t>В соответствии с Федеральным законом о Федеральном бюджете на 2017 год и плановый период 2018 и 2019 годов (с учетом внесения изменений) основные суммы расходов федерального бюджета в сфере культуры в 2017 году предусмотрены на обеспечение деятельности федеральных учреждений культуры – 47,9%, капитальные вложения – 17,8%, субсидии юридическим лицам и некоммерческим организациям – 10,2%, реставрацию – 8,5%, премии и гранты в области культуры и искусства – 4,9%</t>
+  </si>
+  <si>
+    <t>Основные суммы расходов федерального бюджета в сфере культуры в две тысячи семнадцатом году направлены на обесп\+ечение деятельности федеральных учреждений культуры, капитальные вложения, а также субсидии юридическим лицам и некоммерческим организациям</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,21 +501,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
@@ -531,7 +531,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="138.75" customHeight="1">
+    <row r="2" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="126">
+    <row r="3" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -605,13 +605,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -625,7 +625,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -638,7 +638,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -651,7 +651,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -664,7 +664,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -677,11 +677,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -694,7 +694,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -707,7 +707,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -720,7 +720,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="134.25" customHeight="1">
+    <row r="12" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -733,7 +733,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -746,7 +746,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
@@ -759,7 +759,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
   </sheetData>
